--- a/data/trans_camb/P68-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P68-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P68-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P68-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,54</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,17</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-18,42</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,62</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,92</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,77</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,83</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,2</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,69; -3,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,81; 7,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,18; -4,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,04; 5,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,13; 7,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,3; 18,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,96; -2,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,02; 4,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,01; 2,0</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,77%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,93%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-70,44%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,93%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-42,2%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,45%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,63%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,4; -14,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,25; 35,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-92,91; -11,72</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,93; 61,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,38; 76,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,31; 162,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,0; -11,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,91; 26,7</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,02; 11,89</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,8</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,48</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,81</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,54</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,99</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,59</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,42; 3,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,32; 4,7</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,42; -1,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,83; 8,35</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,64; -0,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,1; 0,1</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,13; 3,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,52; 0,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,18; -2,93</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,07%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-34,42%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,71%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,82%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,22%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,66%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,14; 12,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,51; 20,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,71; -6,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,6; 41,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,83; 0,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,68; 0,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,33; 13,72</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,62; 2,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,61; -12,47</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,9</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,45</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,21; 6,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; 7,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,25; 3,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,73; 9,9</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,62; 6,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,59; 5,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,74; 5,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,25; 5,31</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,46; 2,53</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,04%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,49%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,39%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,92%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,38%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,2; 33,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,25; 41,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,69; 18,09</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,8; 51,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,42; 33,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,97; 28,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,51; 27,56</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,31; 25,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,95; 12,23</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,63</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,61</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,26</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,32</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,28</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,42</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,22; 5,59</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,32; 5,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,65; 0,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,32; 5,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,21; 10,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,58; 17,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,84; 2,49</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,31; 4,85</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,98; 5,47</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,25%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,19%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,9%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,46%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,51%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,23%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,15%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,7%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,2; 24,89</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,49; 24,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,18; 2,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,29; 33,72</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,0; 59,94</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,89; 106,21</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,38; 11,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,71; 21,98</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,3; 24,87</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,21</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,43</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,64</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,08</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,18</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,02</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,89</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,28; 10,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,69; 9,34</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,27; 2,26</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,62; 28,37</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,28; 22,18</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,55; 15,93</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,91; 11,75</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,39; 9,86</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,08; 4,78</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,73%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,53%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,29%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>63,03%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,35%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,93%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,67%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,17%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,25; 45,43</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,8; 39,64</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,65; 10,12</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,63; 196,99</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,32; 156,15</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,24; 140,7</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,32; 54,2</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,61; 44,85</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,55; 22,24</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
+          <t>-16,3</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>15,1</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>-0,67</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D24" s="2" t="inlineStr">
+      <c r="G24" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,45</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,49</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,33</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,55</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
+          <t>-59,94; 0,0</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>-38,16; 64,36</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>-48,48; 21,72</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D25" s="2" t="inlineStr">
+      <c r="G25" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,61; 33,57</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,84; 0,0</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,03; 33,66</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,34; 20,29</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>92,62%</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>-4,13%</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D26" s="2" t="inlineStr">
+      <c r="G26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,3%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,02%</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,58</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,13</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,47</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,09</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,63; 1,19</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,41; 2,8</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,59; -2,31</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,41; 5,15</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,28; 2,9</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,45; 6,36</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,19; 1,71</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,93; 1,91</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,38; 0,21</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,34%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,51%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,91%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,75%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,93%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,68%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,39%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,79%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,71; 5,1</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,86; 11,97</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,52; -9,5</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,42; 26,19</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,15; 15,28</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,96; 32,58</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,67; 7,55</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,97; 8,49</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,62; 0,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P68-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P68-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-18,42</t>
+          <t>-19,03</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,92</t>
+          <t>5,23</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-7,2</t>
+          <t>-7,74</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,18; -4,82</t>
+          <t>-27,42; -5,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 18,85</t>
+          <t>-6,36; 19,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-15,01; 2,0</t>
+          <t>-15,65; 1,48</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-70,44%</t>
+          <t>-72,76%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>34,97%</t>
+          <t>37,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-34,63%</t>
+          <t>-37,24%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-92,91; -11,72</t>
+          <t>-93,88; -15,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-40,31; 162,13</t>
+          <t>-39,65; 167,37</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,14 +831,14 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-66,02; 11,89</t>
+          <t>-67,85; 9,45</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,8</t>
+          <t>-8,4</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-5,81</t>
+          <t>-8,96</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-7,59</t>
+          <t>-8,95</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,42; -1,51</t>
+          <t>-14,4; -1,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 0,1</t>
+          <t>-18,54; -2,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-12,18; -2,93</t>
+          <t>-15,1; -4,17</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-34,42%</t>
+          <t>-32,85%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-24,82%</t>
+          <t>-38,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-30,66%</t>
+          <t>-36,17%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-53,71; -6,3</t>
+          <t>-52,96; -3,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-48,68; 0,75</t>
+          <t>-73,51; -13,16</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,14 +1047,14 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-46,61; -12,47</t>
+          <t>-57,97; -18,17</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,69</t>
+          <t>-1,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,45</t>
+          <t>-1,4</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 3,47</t>
+          <t>-7,1; 3,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,59; 5,24</t>
+          <t>-7,6; 5,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 2,53</t>
+          <t>-5,39; 2,48</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-7,49%</t>
+          <t>-7,06%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-5,39%</t>
+          <t>-5,37%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-6,38%</t>
+          <t>-6,16%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-27,69; 18,09</t>
+          <t>-27,88; 18,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,97; 28,0</t>
+          <t>-28,13; 26,89</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,14 +1263,14 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-21,95; 12,23</t>
+          <t>-21,84; 12,37</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-5,63</t>
+          <t>-11,07</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>9,32</t>
+          <t>12,62</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,42</t>
+          <t>-2,51</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 0,78</t>
+          <t>-22,42; -1,81</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,58; 17,12</t>
+          <t>3,84; 28,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 5,47</t>
+          <t>-15,26; 5,56</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-21,9%</t>
+          <t>-43,06%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>42,51%</t>
+          <t>57,57%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>-10,17%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-44,18; 2,82</t>
+          <t>-78,18; -8,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>5,89; 106,21</t>
+          <t>12,33; 156,79</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,14 +1479,14 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-18,3; 24,87</t>
+          <t>-56,68; 23,67</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-5,43</t>
+          <t>-5,33</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>5,18</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-1,89</t>
+          <t>-1,8</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-14,27; 2,26</t>
+          <t>-14,28; 2,27</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 15,93</t>
+          <t>-6,51; 15,82</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 4,78</t>
+          <t>-8,01; 4,91</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-19,29%</t>
+          <t>-18,95%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>23,93%</t>
+          <t>24,49%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-7,17%</t>
+          <t>-6,83%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-41,65; 10,12</t>
+          <t>-42,12; 9,7</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-20,24; 140,7</t>
+          <t>-20,04; 139,48</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,14 +1695,14 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-26,55; 22,24</t>
+          <t>-26,16; 22,97</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,17 +1712,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-16,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>15,1</t>
+          <t>36,21</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,67</t>
+          <t>17,25</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,22 +1737,22 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>16,45</t>
+          <t>16,41</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-9,49</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>7,33</t>
+          <t>18,11</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>6,55</t>
+          <t>16,82</t>
         </is>
       </c>
     </row>
@@ -1765,17 +1765,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-59,94; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-38,16; 64,36</t>
+          <t>0,0; 78,63</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-48,48; 21,72</t>
+          <t>5,39; 37,62</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,22 +1790,22 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>7,61; 33,57</t>
+          <t>7,56; 33,45</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-42,84; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-25,03; 33,66</t>
+          <t>0,0; 47,82</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-26,34; 20,29</t>
+          <t>8,71; 28,41</t>
         </is>
       </c>
     </row>
@@ -1818,17 +1818,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>92,62%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-4,13%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1848,17 +1848,17 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>77,3%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>69,02%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-33,24</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-5,47</t>
+          <t>-33,24</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-33,24</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>-33,24</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 1,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 2,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-8,59; -2,31</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 5,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 2,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 6,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 1,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 1,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 0,21</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-6,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-0,51%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-21,91%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-2,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-2,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-2,39%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-8,79%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -2087,59 +2087,276 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>-1,58</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>-7,45</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>2,96</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>-0,64</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>-3,27</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>-4,63; 1,19</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; 2,8</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>-13,15; -3,58</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>-2,41; 5,15</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>-4,28; 2,9</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>-1,23; 8,76</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>-3,19; 1,71</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>-2,93; 1,91</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>-7,74; 0,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>-6,34%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>-0,51%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>-29,88%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>5,57%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>-2,75%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>13,73%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>-2,68%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>-2,39%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>-13,76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
           <t>-17,71; 5,1</t>
         </is>
       </c>
-      <c r="D31" s="2" t="inlineStr">
+      <c r="D35" s="2" t="inlineStr">
         <is>
           <t>-12,86; 11,97</t>
         </is>
       </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-32,52; -9,5</t>
-        </is>
-      </c>
-      <c r="F31" s="2" t="inlineStr">
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>-51,58; -15,1</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
         <is>
           <t>-10,42; 26,19</t>
         </is>
       </c>
-      <c r="G31" s="2" t="inlineStr">
+      <c r="G35" s="2" t="inlineStr">
         <is>
           <t>-18,15; 15,28</t>
         </is>
       </c>
-      <c r="H31" s="2" t="inlineStr">
-        <is>
-          <t>-1,96; 32,58</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>-5,43; 43,82</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
         <is>
           <t>-12,67; 7,55</t>
         </is>
       </c>
-      <c r="J31" s="2" t="inlineStr">
+      <c r="J35" s="2" t="inlineStr">
         <is>
           <t>-11,97; 8,49</t>
         </is>
       </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>-17,62; 0,73</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>-32,84; -0,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>

--- a/data/trans_camb/P68-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P68-Edad-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,69; -3,12</t>
+          <t>-22,77; -3,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,81; 7,98</t>
+          <t>-15,41; 8,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,42; -5,5</t>
+          <t>-28,32; -6,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 5,85</t>
+          <t>-10,35; 6,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 7,57</t>
+          <t>-9,54; 7,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 19,23</t>
+          <t>-5,33; 19,59</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-14,96; -2,27</t>
+          <t>-15,47; -2,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 4,82</t>
+          <t>-10,39; 4,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 1,48</t>
+          <t>-14,69; 2,11</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-76,4; -14,15</t>
+          <t>-74,25; -12,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-53,25; 35,75</t>
+          <t>-51,38; 39,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-93,88; -15,9</t>
+          <t>-93,64; -12,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-61,93; 61,08</t>
+          <t>-61,1; 62,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-57,38; 76,94</t>
+          <t>-56,37; 75,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-39,65; 167,37</t>
+          <t>-33,51; 179,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-65,0; -11,7</t>
+          <t>-66,61; -9,55</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,91; 26,7</t>
+          <t>-44,48; 26,01</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-67,85; 9,45</t>
+          <t>-65,45; 11,95</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 3,05</t>
+          <t>-8,71; 2,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 4,7</t>
+          <t>-7,54; 3,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-14,4; -1,1</t>
+          <t>-14,81; -1,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 8,35</t>
+          <t>-6,54; 8,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,64; -0,26</t>
+          <t>-12,37; 0,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-18,54; -2,61</t>
+          <t>-18,28; -1,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 3,12</t>
+          <t>-6,04; 3,13</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-8,52; 0,57</t>
+          <t>-8,21; 0,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-15,1; -4,17</t>
+          <t>-14,88; -3,91</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-30,14; 12,97</t>
+          <t>-31,47; 11,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-26,51; 20,25</t>
+          <t>-27,52; 15,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-52,96; -3,74</t>
+          <t>-54,07; -6,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,6; 41,83</t>
+          <t>-24,4; 39,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-49,83; 0,51</t>
+          <t>-47,72; 0,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-73,51; -13,16</t>
+          <t>-69,18; -10,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-22,33; 13,72</t>
+          <t>-23,06; 13,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-31,62; 2,48</t>
+          <t>-30,57; 1,7</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-57,97; -18,17</t>
+          <t>-57,35; -16,34</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 6,74</t>
+          <t>-4,35; 6,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 7,89</t>
+          <t>-3,0; 7,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,1; 3,7</t>
+          <t>-6,65; 3,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 9,9</t>
+          <t>-4,24; 9,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 6,65</t>
+          <t>-7,11; 6,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,6; 5,23</t>
+          <t>-7,92; 4,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 5,78</t>
+          <t>-2,66; 5,57</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 5,31</t>
+          <t>-2,85; 5,58</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 2,48</t>
+          <t>-5,2; 2,34</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-17,2; 33,88</t>
+          <t>-17,25; 31,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-13,25; 41,57</t>
+          <t>-12,47; 38,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-27,88; 18,33</t>
+          <t>-26,47; 17,19</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-14,8; 51,19</t>
+          <t>-17,0; 50,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-25,42; 33,55</t>
+          <t>-26,89; 34,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-28,13; 26,89</t>
+          <t>-28,71; 23,04</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-11,51; 27,56</t>
+          <t>-11,05; 26,96</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-13,31; 25,27</t>
+          <t>-11,84; 26,77</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-21,84; 12,37</t>
+          <t>-21,43; 11,36</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 5,59</t>
+          <t>-7,74; 5,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 5,46</t>
+          <t>-7,25; 6,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-22,42; -1,81</t>
+          <t>-21,72; -2,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 5,4</t>
+          <t>-12,15; 4,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 10,19</t>
+          <t>-8,03; 9,28</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,84; 28,43</t>
+          <t>4,02; 27,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 2,49</t>
+          <t>-7,82; 2,53</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 4,85</t>
+          <t>-4,86; 4,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 5,56</t>
+          <t>-13,18; 5,46</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,2; 24,89</t>
+          <t>-27,23; 26,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-25,49; 24,27</t>
+          <t>-24,79; 26,68</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-78,18; -8,31</t>
+          <t>-76,41; -9,28</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-44,29; 33,72</t>
+          <t>-45,34; 27,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-27,0; 59,94</t>
+          <t>-29,15; 55,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>12,33; 156,79</t>
+          <t>13,4; 158,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-28,38; 11,38</t>
+          <t>-28,04; 11,36</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-19,71; 21,98</t>
+          <t>-17,7; 21,51</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-56,68; 23,67</t>
+          <t>-51,79; 23,71</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 10,42</t>
+          <t>-10,68; 9,49</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 9,34</t>
+          <t>-11,73; 9,27</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-14,28; 2,27</t>
+          <t>-13,75; 2,88</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 28,37</t>
+          <t>-1,53; 29,05</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-6,28; 22,18</t>
+          <t>-6,15; 21,51</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 15,82</t>
+          <t>-5,73; 15,45</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 11,75</t>
+          <t>-4,54; 12,19</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 9,86</t>
+          <t>-6,07; 9,93</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 4,91</t>
+          <t>-8,18; 4,82</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-28,25; 45,43</t>
+          <t>-31,59; 41,73</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-32,8; 39,64</t>
+          <t>-34,78; 41,26</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-42,12; 9,7</t>
+          <t>-40,83; 13,62</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 196,99</t>
+          <t>-6,49; 197,31</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-22,32; 156,15</t>
+          <t>-20,86; 157,88</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-20,04; 139,48</t>
+          <t>-19,27; 116,63</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 54,2</t>
+          <t>-15,26; 54,78</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-18,61; 44,85</t>
+          <t>-20,27; 43,26</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-26,16; 22,97</t>
+          <t>-26,03; 22,68</t>
         </is>
       </c>
     </row>
@@ -1770,12 +1770,12 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 78,63</t>
+          <t>0,0; 78,64</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>5,39; 37,62</t>
+          <t>5,17; 35,42</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>7,56; 33,45</t>
+          <t>6,63; 30,74</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1800,12 +1800,12 @@
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 47,82</t>
+          <t>0,0; 56,68</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>8,71; 28,41</t>
+          <t>8,98; 28,8</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 1,19</t>
+          <t>-4,4; 1,7</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 2,8</t>
+          <t>-3,24; 2,84</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-13,15; -3,58</t>
+          <t>-13,94; -3,5</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 5,15</t>
+          <t>-2,87; 4,88</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 2,9</t>
+          <t>-4,12; 3,13</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 8,76</t>
+          <t>-1,77; 9,03</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 1,71</t>
+          <t>-2,79; 1,95</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 1,91</t>
+          <t>-2,75; 1,86</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 0,02</t>
+          <t>-7,87; -0,26</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 5,1</t>
+          <t>-16,62; 7,19</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 11,97</t>
+          <t>-12,35; 11,95</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-51,58; -15,1</t>
+          <t>-53,73; -14,91</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 26,19</t>
+          <t>-12,53; 24,42</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-18,15; 15,28</t>
+          <t>-17,93; 16,29</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 43,82</t>
+          <t>-7,28; 44,25</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-12,67; 7,55</t>
+          <t>-11,33; 8,58</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-11,97; 8,49</t>
+          <t>-11,03; 8,37</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-32,84; -0,15</t>
+          <t>-32,4; -1,14</t>
         </is>
       </c>
     </row>
